--- a/ANALYSIS/nofib.xlsx
+++ b/ANALYSIS/nofib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="5760" windowWidth="18400" windowHeight="12740" tabRatio="500"/>
+    <workbookView xWindow="2580" yWindow="1140" windowWidth="18400" windowHeight="12740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>BranchMispredictionRate</t>
   </si>
@@ -319,12 +319,32 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEOMEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -355,13 +375,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,10 +714,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3391,12 +3413,121 @@
         <v>1.6459562665852E-5</v>
       </c>
     </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="4">
+        <f>MAX(B2:B92)</f>
+        <v>0.54400910455698503</v>
+      </c>
+      <c r="C94" s="5">
+        <f>MAX(C2:C92)</f>
+        <v>0.72500605348010105</v>
+      </c>
+      <c r="D94" s="5">
+        <f>MAX(D2:D92)</f>
+        <v>0.14772102482978899</v>
+      </c>
+      <c r="E94" s="5">
+        <f>MAX(E2:E92)</f>
+        <v>0.78957389635997199</v>
+      </c>
+      <c r="F94" s="5">
+        <f>MAX(F2:F92)</f>
+        <v>0.13456007874770801</v>
+      </c>
+      <c r="G94" s="5">
+        <f>MAX(G2:G92)</f>
+        <v>257.055823111932</v>
+      </c>
+      <c r="H94" s="7">
+        <f>MAX(H2:H92)</f>
+        <v>385.20461599099701</v>
+      </c>
+      <c r="I94" s="5">
+        <f>MAX(I2:I92)</f>
+        <v>6.2710373580697795E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="5">
+        <f>MEDIAN(B2:B92)</f>
+        <v>0.31006693724345502</v>
+      </c>
+      <c r="C95" s="5">
+        <f>MEDIAN(C2:C92)</f>
+        <v>3.6719126825323398E-2</v>
+      </c>
+      <c r="D95" s="5">
+        <f>MEDIAN(D2:D92)</f>
+        <v>2.9417681600939001E-2</v>
+      </c>
+      <c r="E95" s="5">
+        <f>MEDIAN(E2:E92)</f>
+        <v>3.9115128973511402E-2</v>
+      </c>
+      <c r="F95" s="5">
+        <f>MEDIAN(F2:F92)</f>
+        <v>3.9242145569392602E-2</v>
+      </c>
+      <c r="G95" s="3">
+        <f>MEDIAN(G2:G92)</f>
+        <v>47.498269324481299</v>
+      </c>
+      <c r="H95" s="6">
+        <f>MEDIAN(H2:H92)</f>
+        <v>7.6878079187281498</v>
+      </c>
+      <c r="I95" s="5">
+        <f>MEDIAN(I2:I92)</f>
+        <v>7.9462356751252195E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="5">
+        <f>GEOMEAN(B2:B92)</f>
+        <v>0.30064790606710562</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5">
+        <f>GEOMEAN(D2:D92)</f>
+        <v>2.2298762168528129E-2</v>
+      </c>
+      <c r="E96" s="5">
+        <f>GEOMEAN(E2:E92)</f>
+        <v>5.3266654901789383E-2</v>
+      </c>
+      <c r="F96" s="5">
+        <f>GEOMEAN(F2:F92)</f>
+        <v>3.4698470509851823E-2</v>
+      </c>
+      <c r="G96" s="6">
+        <f>GEOMEAN(G2:G92)</f>
+        <v>47.712687876330421</v>
+      </c>
+      <c r="H96" s="6">
+        <f>GEOMEAN(H2:H92)</f>
+        <v>7.6366434168448905</v>
+      </c>
+      <c r="I96" s="5">
+        <f>GEOMEAN(I2:I92)</f>
+        <v>1.3373241971950292E-3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I92">
     <sortCondition descending="1" ref="E3:E92"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
